--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y616"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
       </c>
       <c r="R615" s="2" t="inlineStr"/>
     </row>
-    <row r="616">
+    <row r="616" ht="15" customHeight="1">
       <c r="A616" t="inlineStr">
         <is>
           <t>A 39911-2023</t>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36288,6 +36288,63 @@
         <v>0</v>
       </c>
       <c r="R616" s="2" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>A 42279-2023</t>
+        </is>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C617" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>EMMABODA</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" t="n">
+        <v>0</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y617"/>
+  <dimension ref="A1:Y619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
       </c>
       <c r="R616" s="2" t="inlineStr"/>
     </row>
-    <row r="617">
+    <row r="617" ht="15" customHeight="1">
       <c r="A617" t="inlineStr">
         <is>
           <t>A 42279-2023</t>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36345,6 +36345,120 @@
         <v>0</v>
       </c>
       <c r="R617" s="2" t="inlineStr"/>
+    </row>
+    <row r="618" ht="15" customHeight="1">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>A 42678-2023</t>
+        </is>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C618" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>EMMABODA</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N618" t="n">
+        <v>0</v>
+      </c>
+      <c r="O618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" s="2" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>A 42836-2023</t>
+        </is>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C619" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>EMMABODA</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" t="n">
+        <v>0</v>
+      </c>
+      <c r="O619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 60730-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 60730-2022.xlsx", "A 60730-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 60730-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 60730-2022.png", "A 60730-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 60730-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 60730-2022.docx", "A 60730-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 60730-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 60730-2022.docx", "A 60730-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 60730-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 60730-2022.docx", "A 60730-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 60730-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 60730-2022.docx", "A 60730-2022")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 61489-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 61489-2018.xlsx", "A 61489-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 61489-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 61489-2018.png", "A 61489-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 61489-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 61489-2018.docx", "A 61489-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 61489-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 61489-2018.docx", "A 61489-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 61489-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 61489-2018.docx", "A 61489-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 61489-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 61489-2018.docx", "A 61489-2018")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 39871-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 39871-2019.xlsx", "A 39871-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 39871-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 39871-2019.png", "A 39871-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 39871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 39871-2019.docx", "A 39871-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 39871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 39871-2019.docx", "A 39871-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 39871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 39871-2019.docx", "A 39871-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 39871-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 39871-2019.docx", "A 39871-2019")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,27 +885,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 12722-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 12722-2020.xlsx", "A 12722-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 12722-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 12722-2020.png", "A 12722-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 12722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 12722-2020.docx", "A 12722-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 12722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 12722-2020.docx", "A 12722-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 12722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 12722-2020.docx", "A 12722-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 12722-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 12722-2020.docx", "A 12722-2020")</f>
         <v/>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 41755-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 41755-2018.xlsx", "A 41755-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 41755-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 41755-2018.png", "A 41755-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 41755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 41755-2018.docx", "A 41755-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 41755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 41755-2018.docx", "A 41755-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 41755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 41755-2018.docx", "A 41755-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 41755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 41755-2018.docx", "A 41755-2018")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1060,27 +1060,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 71541-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 71541-2018.xlsx", "A 71541-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 71541-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 71541-2018.png", "A 71541-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 71541-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 71541-2018.docx", "A 71541-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 71541-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 71541-2018.docx", "A 71541-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 71541-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 71541-2018.docx", "A 71541-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 71541-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 71541-2018.docx", "A 71541-2018")</f>
         <v/>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 40786-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 40786-2019.xlsx", "A 40786-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 40786-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 40786-2019.png", "A 40786-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 40786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 40786-2019.docx", "A 40786-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 40786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 40786-2019.docx", "A 40786-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 40786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 40786-2019.docx", "A 40786-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 40786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 40786-2019.docx", "A 40786-2019")</f>
         <v/>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1235,27 +1235,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 37170-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 37170-2020.xlsx", "A 37170-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 37170-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 37170-2020.png", "A 37170-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 37170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 37170-2020.docx", "A 37170-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 37170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 37170-2020.docx", "A 37170-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 37170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 37170-2020.docx", "A 37170-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 37170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 37170-2020.docx", "A 37170-2020")</f>
         <v/>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 52954-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 52954-2020.xlsx", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 52954-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 52954-2020.png", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/knärot/A 52954-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/knärot/A 52954-2020.png", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 52954-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 52954-2020.docx", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 52954-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 52954-2020.docx", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 52954-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 52954-2020.docx", "A 52954-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 52954-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 52954-2020.docx", "A 52954-2020")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1414,27 +1414,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 20129-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 20129-2021.xlsx", "A 20129-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 20129-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 20129-2021.png", "A 20129-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 20129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 20129-2021.docx", "A 20129-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 20129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 20129-2021.docx", "A 20129-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 20129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 20129-2021.docx", "A 20129-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 20129-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 20129-2021.docx", "A 20129-2021")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1499,27 +1499,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 46550-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 46550-2021.xlsx", "A 46550-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 46550-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 46550-2021.png", "A 46550-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 46550-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 46550-2021.docx", "A 46550-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 46550-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 46550-2021.docx", "A 46550-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 46550-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 46550-2021.docx", "A 46550-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 46550-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 46550-2021.docx", "A 46550-2021")</f>
         <v/>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1589,27 +1589,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 58297-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 58297-2021.xlsx", "A 58297-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 58297-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 58297-2021.png", "A 58297-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 58297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 58297-2021.docx", "A 58297-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 58297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 58297-2021.docx", "A 58297-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 58297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 58297-2021.docx", "A 58297-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 58297-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 58297-2021.docx", "A 58297-2021")</f>
         <v/>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,31 +1674,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 60257-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 60257-2021.xlsx", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 60257-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 60257-2021.png", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/knärot/A 60257-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/knärot/A 60257-2021.png", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 60257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 60257-2021.docx", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 60257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 60257-2021.docx", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 60257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 60257-2021.docx", "A 60257-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 60257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 60257-2021.docx", "A 60257-2021")</f>
         <v/>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 30597-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/artfynd/A 30597-2022.xlsx", "A 30597-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 30597-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/kartor/A 30597-2022.png", "A 30597-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 30597-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomål/A 30597-2022.docx", "A 30597-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 30597-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/klagomålsmail/A 30597-2022.docx", "A 30597-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 30597-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsyn/A 30597-2022.docx", "A 30597-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 30597-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EMMABODA/tillsynsmail/A 30597-2022.docx", "A 30597-2022")</f>
         <v/>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44137</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44143</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44145</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44147</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         <v>44148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44159</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44180</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44202</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44202</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44202</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44202</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44202</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44202</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44202</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44208</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44208</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44210</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44211</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44211</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44223</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44223</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44225</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44228</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44228</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44235</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44235</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44238</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44238</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44238</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44239</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44239</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44239</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44240</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44249</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44251</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44251</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44256</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44264</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44270</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44271</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44273</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44277</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44278</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44278</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
         <v>44293</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44295</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24043,7 +24043,7 @@
         <v>44295</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44297</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44299</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44312</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44315</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44320</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44326</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44340</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44340</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44344</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44379</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44382</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44384</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44385</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44385</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44387</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44404</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44405</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44405</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44405</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44405</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44410</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44412</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44412</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44416</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44416</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44416</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44416</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44416</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44416</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44421</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44424</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44424</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44424</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44431</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44433</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44442</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>44445</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>44447</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44449</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>44449</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44453</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44454</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44454</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44455</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44459</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44460</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>44462</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>44473</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44474</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44487</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44487</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>44488</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44488</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44488</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>44488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44494</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44496</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44501</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44507</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44507</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44507</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44507</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44507</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44507</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44523</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44524</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44524</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44529</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44530</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44532</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44551</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44551</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44571</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29010,7 +29010,7 @@
         <v>44572</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>44586</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>44593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44600</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44600</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>44601</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>44615</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29528,7 +29528,7 @@
         <v>44615</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44619</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44624</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44643</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44652</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>44652</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>44652</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44683</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44690</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44691</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44722</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44725</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44726</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44740</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44740</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44766</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44771</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>44777</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>44781</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30683,7 +30683,7 @@
         <v>44781</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30740,7 +30740,7 @@
         <v>44808</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>44813</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>44817</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>44817</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -30968,7 +30968,7 @@
         <v>44820</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44827</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>44827</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
         <v>44839</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31206,7 +31206,7 @@
         <v>44840</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44849</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44861</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44879</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>44893</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>44893</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44893</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44895</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>44900</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>44902</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>44902</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>44911</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44911</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44912</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>44912</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>44949</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>44951</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44953</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44953</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44953</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44955</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>44958</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>44959</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>44960</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>44967</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>44977</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>44979</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>44980</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>44993</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>44993</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>44997</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45002</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45009</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45028</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33387,7 +33387,7 @@
         <v>45029</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45040</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45048</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33558,7 +33558,7 @@
         <v>45049</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45049</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45051</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45056</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45057</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>45063</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45067</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45069</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45069</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34076,7 +34076,7 @@
         <v>45070</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34133,7 +34133,7 @@
         <v>45071</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34190,7 +34190,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45074</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45079</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45084</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45084</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45085</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>45091</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45091</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45092</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45092</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45095</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45097</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45097</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45097</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45099</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45102</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45102</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45102</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45102</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45104</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45107</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45113</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45117</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45117</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45121</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45126</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45126</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45126</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45126</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45132</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45140</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45155</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45155</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45166</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36185,7 +36185,7 @@
         <v>45166</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36242,7 +36242,7 @@
         <v>45168</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>45180</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36356,7 +36356,7 @@
         <v>45181</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>45182</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>

--- a/Översikt EMMABODA.xlsx
+++ b/Översikt EMMABODA.xlsx
@@ -572,7 +572,7 @@
         <v>44913</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43413</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>43452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44054</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>44120</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>44445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>44488</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43322</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43322</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43345</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43349</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43349</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43361</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43374</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43381</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>43388</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>43391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>43398</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>43404</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>43407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43418</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43420</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43420</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43425</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43430</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43430</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43430</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43430</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43430</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43433</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43439</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>43440</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43453</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43468</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43474</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43486</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43488</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43496</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43502</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43509</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43521</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43528</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43530</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43532</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43535</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43544</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43549</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>43550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>43558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43559</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43563</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43569</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         <v>43575</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>43578</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43578</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43579</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43579</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>43580</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>43580</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>43581</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>43587</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43591</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43594</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43600</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43600</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43605</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43605</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>43612</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>43612</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>43613</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>43620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>43626</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>43626</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43627</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>43629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43630</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>43632</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>43636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>43641</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43642</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43642</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43647</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43654</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43658</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43658</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43661</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43669</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43672</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43672</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43672</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43675</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43675</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43678</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>43678</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>43678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>43680</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>43682</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>43683</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>43685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>43685</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>43685</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>43685</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>43685</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>43685</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>43686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>43686</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>43690</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43691</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43691</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43691</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43691</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43691</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43693</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43693</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43695</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43697</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43697</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43700</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>43706</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43711</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43717</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43718</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43718</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43719</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>43720</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>43724</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>43732</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43733</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43734</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43735</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>43738</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43748</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43748</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43748</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43748</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43748</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43752</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43752</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43756</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43760</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43773</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43773</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43777</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43784</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43790</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43790</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43790</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43798</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43801</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43804</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43840</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>43840</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>43840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>43843</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>43853</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>43854</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>43858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>43858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>43859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>43859</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>43864</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>43866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>43872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>43873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>43874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>43880</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>43881</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43881</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>43881</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>43885</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>43886</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>43888</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>43889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>43896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>43899</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>43899</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>43899</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>43899</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>43900</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>43908</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>43916</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>43920</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>43920</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>43923</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43923</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>43944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>43955</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43969</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43969</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43970</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43979</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43984</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43997</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43999</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44012</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44039</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44040</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44048</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44054</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44070</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44071</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>44071</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44071</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         <v>44074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>44075</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>44076</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         <v>44078</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>44082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44083</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44088</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44089</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44091</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44097</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44102</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44105</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44109</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44110</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44110</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44110</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44112</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44112</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44118</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>44120</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44120</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44127</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
  